--- a/Design document/Excels/nghien_cuu_khoa_hoc.xlsx
+++ b/Design document/Excels/nghien_cuu_khoa_hoc.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -248,18 +248,18 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A11"/>
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.5"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="20.3826530612245"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1479591836735"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.36734693877551"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="14.3112244897959"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.36734693877551"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="12.9591836734694"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.5"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.50510204081633"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -382,7 +382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="n">
         <v>6</v>
       </c>
